--- a/wash_P/KEN.xlsx
+++ b/wash_P/KEN.xlsx
@@ -67039,7 +67039,7 @@
         <v>0</v>
       </c>
       <c r="YF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YG21" t="n">
         <v>0</v>
@@ -70140,7 +70140,7 @@
         <v>0</v>
       </c>
       <c r="XW22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XX22" t="n">
         <v>0</v>
@@ -70167,7 +70167,7 @@
         <v>0</v>
       </c>
       <c r="YF22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YG22" t="n">
         <v>0</v>
@@ -73268,7 +73268,7 @@
         <v>0</v>
       </c>
       <c r="XW23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XX23" t="n">
         <v>0</v>
@@ -73295,7 +73295,7 @@
         <v>0</v>
       </c>
       <c r="YF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YG23" t="n">
         <v>0</v>
@@ -91916,7 +91916,7 @@
         <v>0</v>
       </c>
       <c r="WI29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WJ29" t="n">
         <v>1</v>
@@ -92609,7 +92609,7 @@
         <v>0</v>
       </c>
       <c r="AFF29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFG29" t="n">
         <v>0</v>
